--- a/SupplementaryTables/SupplementaryTable8.xlsx
+++ b/SupplementaryTables/SupplementaryTable8.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="117">
   <si>
     <t>Cell_class</t>
   </si>
@@ -115,24 +115,24 @@
     <t>Habenula-2</t>
   </si>
   <si>
+    <t>Habenula-3</t>
+  </si>
+  <si>
+    <t>Habenula-4</t>
+  </si>
+  <si>
     <t>Rora-7</t>
   </si>
   <si>
-    <t>Habenula-3</t>
-  </si>
-  <si>
     <t>Rora-4</t>
   </si>
   <si>
-    <t>Habenula-4</t>
+    <t>Rora-5</t>
   </si>
   <si>
     <t>Rora-11</t>
   </si>
   <si>
-    <t>Rora-5</t>
-  </si>
-  <si>
     <t>Rora-8</t>
   </si>
   <si>
@@ -157,15 +157,18 @@
     <t>Dorsal_Habenula_Tac2</t>
   </si>
   <si>
+    <t>Calb1</t>
+  </si>
+  <si>
+    <t>Cnih2</t>
+  </si>
+  <si>
     <t>Cpne9</t>
   </si>
   <si>
     <t>Zic1</t>
   </si>
   <si>
-    <t>Calb1</t>
-  </si>
-  <si>
     <t>Necab2</t>
   </si>
   <si>
@@ -175,141 +178,135 @@
     <t>Cdh22</t>
   </si>
   <si>
+    <t>Zic4</t>
+  </si>
+  <si>
     <t>Rapgef4</t>
   </si>
   <si>
-    <t>Cnih2</t>
-  </si>
-  <si>
-    <t>Zic4</t>
-  </si>
-  <si>
     <t>Dorsal_Rora</t>
   </si>
   <si>
+    <t>Map3k9</t>
+  </si>
+  <si>
+    <t>Camkv</t>
+  </si>
+  <si>
+    <t>Ntng1</t>
+  </si>
+  <si>
+    <t>Rtn4rl1</t>
+  </si>
+  <si>
+    <t>Car7</t>
+  </si>
+  <si>
+    <t>Cdkl5</t>
+  </si>
+  <si>
+    <t>Rnf165</t>
+  </si>
+  <si>
+    <t>Syt7</t>
+  </si>
+  <si>
+    <t>Adra1b</t>
+  </si>
+  <si>
+    <t>Lrrn2</t>
+  </si>
+  <si>
+    <t>Trim9</t>
+  </si>
+  <si>
+    <t>Anks1b</t>
+  </si>
+  <si>
+    <t>Xkr4</t>
+  </si>
+  <si>
+    <t>Lrrc7</t>
+  </si>
+  <si>
+    <t>Vwc2</t>
+  </si>
+  <si>
+    <t>Dpp10</t>
+  </si>
+  <si>
+    <t>Cpne7</t>
+  </si>
+  <si>
+    <t>Mtus2</t>
+  </si>
+  <si>
+    <t>Cacnb2</t>
+  </si>
+  <si>
+    <t>Prkcg</t>
+  </si>
+  <si>
+    <t>Gbx2</t>
+  </si>
+  <si>
+    <t>Kcna4</t>
+  </si>
+  <si>
+    <t>Cacnb4</t>
+  </si>
+  <si>
+    <t>Dlgap3</t>
+  </si>
+  <si>
+    <t>Ptprn2</t>
+  </si>
+  <si>
+    <t>Hrh3</t>
+  </si>
+  <si>
+    <t>Rph3a</t>
+  </si>
+  <si>
+    <t>Abhd12b</t>
+  </si>
+  <si>
+    <t>Susd4</t>
+  </si>
+  <si>
+    <t>Camk2b</t>
+  </si>
+  <si>
     <t>AI593442</t>
   </si>
   <si>
-    <t>Xkr4</t>
-  </si>
-  <si>
-    <t>Lrrn2</t>
-  </si>
-  <si>
-    <t>Rph3a</t>
-  </si>
-  <si>
-    <t>Car7</t>
-  </si>
-  <si>
-    <t>Anks1b</t>
+    <t>Dagla</t>
   </si>
   <si>
     <t>Nrg3</t>
   </si>
   <si>
-    <t>Kcna4</t>
-  </si>
-  <si>
-    <t>Prkcg</t>
-  </si>
-  <si>
-    <t>Gabrb3</t>
-  </si>
-  <si>
-    <t>Abhd12b</t>
-  </si>
-  <si>
-    <t>Adra1b</t>
+    <t>Ppm1e</t>
+  </si>
+  <si>
+    <t>Stk32c</t>
+  </si>
+  <si>
+    <t>Lrrtm1</t>
+  </si>
+  <si>
+    <t>Cit</t>
+  </si>
+  <si>
+    <t>Ddah1</t>
+  </si>
+  <si>
+    <t>Kcnf1</t>
   </si>
   <si>
     <t>Ildr2</t>
   </si>
   <si>
-    <t>Lrrc7</t>
-  </si>
-  <si>
-    <t>Camkv</t>
-  </si>
-  <si>
-    <t>Vwc2</t>
-  </si>
-  <si>
-    <t>Rtn4rl1</t>
-  </si>
-  <si>
-    <t>Syt7</t>
-  </si>
-  <si>
-    <t>Map3k9</t>
-  </si>
-  <si>
-    <t>Cacnb2</t>
-  </si>
-  <si>
-    <t>Cacnb4</t>
-  </si>
-  <si>
-    <t>Camk2b</t>
-  </si>
-  <si>
-    <t>Dpp10</t>
-  </si>
-  <si>
-    <t>Ppm1e</t>
-  </si>
-  <si>
-    <t>Hrh3</t>
-  </si>
-  <si>
-    <t>Lrrtm1</t>
-  </si>
-  <si>
-    <t>Stk32c</t>
-  </si>
-  <si>
-    <t>Dagla</t>
-  </si>
-  <si>
-    <t>Ddah1</t>
-  </si>
-  <si>
-    <t>Cdkl5</t>
-  </si>
-  <si>
-    <t>Kcnj3</t>
-  </si>
-  <si>
-    <t>Susd4</t>
-  </si>
-  <si>
-    <t>Rnf165</t>
-  </si>
-  <si>
-    <t>Trim9</t>
-  </si>
-  <si>
-    <t>Cit</t>
-  </si>
-  <si>
-    <t>Dlgap3</t>
-  </si>
-  <si>
-    <t>Kcnf1</t>
-  </si>
-  <si>
-    <t>Mtus2</t>
-  </si>
-  <si>
-    <t>Ntng1</t>
-  </si>
-  <si>
-    <t>Ptprn2</t>
-  </si>
-  <si>
-    <t>Gbx2</t>
-  </si>
-  <si>
     <t>Dorsal_Gad2-Ahi1</t>
   </si>
   <si>
@@ -325,21 +322,21 @@
     <t>Tceal3</t>
   </si>
   <si>
+    <t>Tceal5</t>
+  </si>
+  <si>
+    <t>Tceal6</t>
+  </si>
+  <si>
     <t>Eef1a2</t>
   </si>
   <si>
+    <t>Golga7b</t>
+  </si>
+  <si>
     <t>Galnt13</t>
   </si>
   <si>
-    <t>Tceal5</t>
-  </si>
-  <si>
-    <t>Golga7b</t>
-  </si>
-  <si>
-    <t>Tceal6</t>
-  </si>
-  <si>
     <t>Ventral_Rora</t>
   </si>
   <si>
@@ -349,22 +346,22 @@
     <t>Ventral_Gad2-Ahi1</t>
   </si>
   <si>
+    <t>Ankrd34b</t>
+  </si>
+  <si>
+    <t>Aff2</t>
+  </si>
+  <si>
+    <t>Nos1</t>
+  </si>
+  <si>
+    <t>Slc35f1</t>
+  </si>
+  <si>
+    <t>Ralyl</t>
+  </si>
+  <si>
     <t>Slc7a14</t>
-  </si>
-  <si>
-    <t>Nos1</t>
-  </si>
-  <si>
-    <t>Ralyl</t>
-  </si>
-  <si>
-    <t>Ankrd34b</t>
-  </si>
-  <si>
-    <t>Slc35f1</t>
-  </si>
-  <si>
-    <t>Aff2</t>
   </si>
   <si>
     <t>Cntnap4</t>
@@ -435,7 +432,7 @@
   <cols>
     <col min="1" max="1" width="21" customWidth="true"/>
     <col min="2" max="2" width="18" customWidth="true"/>
-    <col min="3" max="3" width="14.5703125" customWidth="true"/>
+    <col min="3" max="3" width="15.5703125" customWidth="true"/>
     <col min="4" max="4" width="19" customWidth="true"/>
     <col min="5" max="5" width="15.5703125" customWidth="true"/>
   </cols>
@@ -462,10 +459,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7.8485499728274304</v>
+        <v>7.7845830781345704</v>
       </c>
       <c r="C2">
-        <v>2.3280102598416194e-33</v>
+        <v>1.8274903557405905e-32</v>
       </c>
       <c r="D2">
         <v>1.6871760797342192</v>
@@ -479,16 +476,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.4419105967778534</v>
+        <v>1.460751637742788</v>
       </c>
       <c r="C3">
-        <v>1.0409615829682257</v>
+        <v>1.0189077945334246</v>
       </c>
       <c r="D3">
-        <v>7.2977852916314454</v>
+        <v>7.75091575091575</v>
       </c>
       <c r="E3">
-        <v>2.1151830567873994e-09</v>
+        <v>2.265912470755709e-10</v>
       </c>
     </row>
     <row r="4">
@@ -513,10 +510,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.2390562542653796</v>
+        <v>1.2552466544861984</v>
       </c>
       <c r="C5">
-        <v>1.0868446042286319</v>
+        <v>1.0716417997587477</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -547,10 +544,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.63317058589079311</v>
+        <v>0.6414440481797995</v>
       </c>
       <c r="C7">
-        <v>1.2893344906771518</v>
+        <v>1.2803510519679733</v>
       </c>
       <c r="D7">
         <v>0.7238209261555566</v>
@@ -564,10 +561,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.74061771561771561</v>
+        <v>0.7502951593860685</v>
       </c>
       <c r="C8">
-        <v>1.3398644076891073</v>
+        <v>1.3317220451314324</v>
       </c>
       <c r="D8">
         <v>4.5636232925952553</v>
@@ -581,10 +578,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.80661335364305653</v>
+        <v>0.81715314388581728</v>
       </c>
       <c r="C9">
-        <v>1.4274781416665778</v>
+        <v>1.4140811891761607</v>
       </c>
       <c r="D9">
         <v>4.6150490730643403</v>
@@ -598,10 +595,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.52223044049967127</v>
+        <v>0.52905427905427904</v>
       </c>
       <c r="C10">
-        <v>1.158066535229626</v>
+        <v>1.1528424683619864</v>
       </c>
       <c r="D10">
         <v>1.1233211233211233</v>
@@ -648,10 +645,10 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>1.4230209383047809</v>
+        <v>1.4416151534055466</v>
       </c>
       <c r="C2">
-        <v>0.49559807888702867</v>
+        <v>0.4880266234966843</v>
       </c>
       <c r="D2">
         <v>5.0050756418469424</v>
@@ -665,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>11.693963930806035</v>
+        <v>11.565059144676979</v>
       </c>
       <c r="C3">
-        <v>8.2087517922970998e-37</v>
+        <v>9.5935571790405556e-36</v>
       </c>
       <c r="D3">
         <v>0.6256344552308678</v>
@@ -682,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>5.1453441295546565</v>
+        <v>5.2125768967874233</v>
       </c>
       <c r="C4">
-        <v>0.00021643493793391749</v>
+        <v>0.00019533980326027486</v>
       </c>
       <c r="D4">
         <v>2.9065934065934065</v>
@@ -705,7 +702,7 @@
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="true"/>
     <col min="2" max="2" width="18" customWidth="true"/>
-    <col min="3" max="3" width="15.5703125" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
     <col min="4" max="4" width="19" customWidth="true"/>
     <col min="5" max="5" width="13.7109375" customWidth="true"/>
   </cols>
@@ -741,7 +738,7 @@
         <v>4.8290598290598288</v>
       </c>
       <c r="E2">
-        <v>0.093699207227810999</v>
+        <v>0.088187489155586829</v>
       </c>
     </row>
     <row r="3">
@@ -766,16 +763,16 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>-0.97830374753451665</v>
+        <v>-0.99125874125874136</v>
       </c>
       <c r="C4">
-        <v>1.0497630848391963</v>
+        <v>1.0419777026813557</v>
       </c>
       <c r="D4">
         <v>3.5478806907378337</v>
       </c>
       <c r="E4">
-        <v>0.09277441746744923</v>
+        <v>0.087620283163702045</v>
       </c>
     </row>
     <row r="5">
@@ -783,10 +780,10 @@
         <v>22</v>
       </c>
       <c r="B5">
-        <v>-1.9949723479135242</v>
+        <v>-2.0213903743315509</v>
       </c>
       <c r="C5">
-        <v>0.57820428202081409</v>
+        <v>0.56780543367035641</v>
       </c>
       <c r="D5">
         <v>4.5272435897435894</v>
@@ -834,10 +831,10 @@
         <v>25</v>
       </c>
       <c r="B8">
-        <v>-0.7267399267399266</v>
+        <v>-0.73636363636363644</v>
       </c>
       <c r="C8">
-        <v>1.1849756448166477</v>
+        <v>1.1778577594628667</v>
       </c>
       <c r="D8">
         <v>1.9174208144796381</v>
@@ -868,10 +865,10 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>-1.9949723479135242</v>
+        <v>-2.0213903743315509</v>
       </c>
       <c r="C10">
-        <v>0.57820428202081409</v>
+        <v>0.56780543367035641</v>
       </c>
       <c r="D10">
         <v>1.7043740573152339</v>
@@ -885,10 +882,10 @@
         <v>28</v>
       </c>
       <c r="B11">
-        <v>-3.5491949910554563</v>
+        <v>-3.5961945031712474</v>
       </c>
       <c r="C11">
-        <v>0.167265339141796</v>
+        <v>0.15355659868754801</v>
       </c>
       <c r="D11">
         <v>3.0322003577817536</v>
@@ -902,10 +899,10 @@
         <v>29</v>
       </c>
       <c r="B12">
-        <v>-3.3914529914529914</v>
+        <v>-3.4363636363636365</v>
       </c>
       <c r="C12">
-        <v>0.17573942387315528</v>
+        <v>0.16184010377894767</v>
       </c>
       <c r="D12">
         <v>1.8896321070234117</v>
@@ -919,10 +916,10 @@
         <v>30</v>
       </c>
       <c r="B13">
-        <v>-4.8449328449328455</v>
+        <v>-4.9090909090909101</v>
       </c>
       <c r="C13">
-        <v>0.045196702953917853</v>
+        <v>0.043233640448134429</v>
       </c>
       <c r="D13">
         <v>1.9755244755244756</v>
@@ -936,10 +933,10 @@
         <v>31</v>
       </c>
       <c r="B14">
-        <v>-4.542124542124542</v>
+        <v>-4.6022727272727275</v>
       </c>
       <c r="C14">
-        <v>0.031176311427787467</v>
+        <v>0.029514682725260716</v>
       </c>
       <c r="D14">
         <v>1.473272490221643</v>
@@ -953,16 +950,16 @@
         <v>32</v>
       </c>
       <c r="B15">
-        <v>-3.1794871794871797</v>
+        <v>-4.4435736677115978</v>
       </c>
       <c r="C15">
-        <v>0.19305445659447346</v>
+        <v>0.028215768897869628</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.70099255583126552</v>
       </c>
       <c r="E15">
-        <v>1.1813254501841328</v>
+        <v>1.1686266985234424</v>
       </c>
     </row>
     <row r="16">
@@ -970,16 +967,16 @@
         <v>33</v>
       </c>
       <c r="B16">
-        <v>-4.3854995579133504</v>
+        <v>-4.2954545454545459</v>
       </c>
       <c r="C16">
-        <v>0.029792367494705308</v>
+        <v>0.50039154785505613</v>
       </c>
       <c r="D16">
-        <v>0.70099255583126552</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>1.1686266985234424</v>
+        <v>1.1813254501841328</v>
       </c>
     </row>
     <row r="17">
@@ -987,16 +984,16 @@
         <v>34</v>
       </c>
       <c r="B17">
-        <v>-4.5331302361005328</v>
+        <v>-4.3868471953578343</v>
       </c>
       <c r="C17">
-        <v>0.0012829911665811012</v>
+        <v>0.053432123774335358</v>
       </c>
       <c r="D17">
-        <v>0.39872971065631618</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>1.3681919852066491</v>
+        <v>1.1813254501841328</v>
       </c>
     </row>
     <row r="18">
@@ -1004,16 +1001,16 @@
         <v>35</v>
       </c>
       <c r="B18">
-        <v>-4.2393162393162394</v>
+        <v>-5.1545454545454543</v>
       </c>
       <c r="C18">
-        <v>0.5061577897888595</v>
+        <v>0.00020145318075948939</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.39872971065631618</v>
       </c>
       <c r="E18">
-        <v>1.1813254501841328</v>
+        <v>1.3681919852066491</v>
       </c>
     </row>
     <row r="19">
@@ -1021,16 +1018,16 @@
         <v>36</v>
       </c>
       <c r="B19">
-        <v>-4.963101938711695</v>
+        <v>-4.9882697947214076</v>
       </c>
       <c r="C19">
-        <v>1.6059385500974416e-06</v>
+        <v>0.084439570847915757</v>
       </c>
       <c r="D19">
-        <v>0.24280189084658363</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>1.422547125078897</v>
+        <v>1.1813254501841328</v>
       </c>
     </row>
     <row r="20">
@@ -1038,16 +1035,16 @@
         <v>37</v>
       </c>
       <c r="B20">
-        <v>-4.9230769230769234</v>
+        <v>-5.37590630228667</v>
       </c>
       <c r="C20">
-        <v>0.093141647630963179</v>
+        <v>2.0251545087258807e-07</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.24280189084658363</v>
       </c>
       <c r="E20">
-        <v>1.1813254501841328</v>
+        <v>1.422547125078897</v>
       </c>
     </row>
     <row r="21">
@@ -1055,10 +1052,10 @@
         <v>38</v>
       </c>
       <c r="B21">
-        <v>-4.9458689458689458</v>
+        <v>-5.4068658614113163</v>
       </c>
       <c r="C21">
-        <v>8.2027900346242113e-06</v>
+        <v>1.2391977353189912e-06</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1072,10 +1069,10 @@
         <v>39</v>
       </c>
       <c r="B22">
-        <v>-5.2732958098811764</v>
+        <v>-5.6921360847741207</v>
       </c>
       <c r="C22">
-        <v>3.2491849478378512e-07</v>
+        <v>3.7511545376349122e-08</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1089,10 +1086,10 @@
         <v>40</v>
       </c>
       <c r="B23">
-        <v>-6.0121212121212118</v>
+        <v>-6.0917355371900825</v>
       </c>
       <c r="C23">
-        <v>3.0808576839001338e-06</v>
+        <v>2.3051437311422284e-06</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1106,10 +1103,10 @@
         <v>41</v>
       </c>
       <c r="B24">
-        <v>-6.8067894546767782</v>
+        <v>-6.8969270166453258</v>
       </c>
       <c r="C24">
-        <v>3.9874083094104755e-09</v>
+        <v>3.1215372012547473e-09</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1123,10 +1120,10 @@
         <v>42</v>
       </c>
       <c r="B25">
-        <v>-7.4085138162808066</v>
+        <v>-8.0855614973262036</v>
       </c>
       <c r="C25">
-        <v>4.6654065523583331e-08</v>
+        <v>3.9485462431172895e-09</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1140,10 +1137,10 @@
         <v>43</v>
       </c>
       <c r="B26">
-        <v>-7.8667724028548776</v>
+        <v>-8.5909090909090917</v>
       </c>
       <c r="C26">
-        <v>2.9536859587739976e-08</v>
+        <v>2.3484850993829366e-09</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1157,10 +1154,10 @@
         <v>44</v>
       </c>
       <c r="B27">
-        <v>-8.2051282051282062</v>
+        <v>-8.9644268774703555</v>
       </c>
       <c r="C27">
-        <v>2.624522278139947e-08</v>
+        <v>1.9974603665121504e-09</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1175,7 +1172,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F45"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="true"/>
@@ -1194,16 +1191,16 @@
         <v>55</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
@@ -1214,16 +1211,16 @@
         <v>56</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3">
@@ -1234,16 +1231,16 @@
         <v>57</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
@@ -1254,13 +1251,13 @@
         <v>58</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5">
@@ -1271,10 +1268,10 @@
         <v>59</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6">
@@ -1285,10 +1282,10 @@
         <v>60</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7">
@@ -1299,10 +1296,10 @@
         <v>61</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
@@ -1313,7 +1310,7 @@
         <v>62</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
@@ -1321,10 +1318,10 @@
         <v>53</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
@@ -1332,92 +1329,92 @@
         <v>54</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="7" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="7" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="7" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28">
@@ -1467,22 +1464,22 @@
     </row>
     <row r="37">
       <c r="B37" s="7" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="7" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41">
@@ -1510,11 +1507,6 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46">
-      <c r="B46" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>